--- a/simulacion/Excel/salida15math.xlsx
+++ b/simulacion/Excel/salida15math.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiovahn/Documents/Code/simulacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiovahn/Documents/Code/simulacion/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F54AD8DD-6A50-6A4E-8705-41C693578324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9E37A16F-DB31-DB48-A8A0-1055C9BB26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15800"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="salida15math" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">salida15math!$C$19:$C$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">salida15math!$D$19:$D$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">salida15math!$C$19:$C$24</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">salida15math!$D$19:$D$24</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">salida15math!$C$19:$C$24</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">salida15math!$D$19:$D$24</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">salida15math!$C$19:$C$24</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">salida15math!$D$19:$D$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -64,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1830,11 +1820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="C2" sqref="C2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,6 +2281,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>